--- a/pearson_tables/t2m_netherlands-2-5.xlsx
+++ b/pearson_tables/t2m_netherlands-2-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7691157110319135</v>
+        <v>-0.7617312171680582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8070536264707299</v>
+        <v>-0.7776694484450468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7676780354072369</v>
+        <v>-0.7192297622155734</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7779097546201169</v>
+        <v>0.7862023621251882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.714938296216642</v>
+        <v>-0.7325604732579487</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6172210332720874</v>
+        <v>0.6180860136393579</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.783659924701284</v>
+        <v>-0.7827033564264042</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7277596509618319</v>
+        <v>0.7196272919238915</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6121478660620865</v>
+        <v>0.6588886875659852</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7210606028976221</v>
+        <v>-0.7023052219355977</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7787121425703206</v>
+        <v>-0.7793415101443152</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6797100374073261</v>
+        <v>-0.6747277345325521</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6642360944429115</v>
+        <v>-0.6722021037044005</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7041280884692367</v>
+        <v>-0.6938787916128651</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6412164800779291</v>
+        <v>-0.6679959259682876</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8129709784298711</v>
+        <v>0.8118721569239349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6995081912411264</v>
+        <v>-0.7314690891945099</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.716854060372567</v>
+        <v>0.7294549320935984</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6544213733578941</v>
+        <v>-0.7197667904727008</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6567313134694781</v>
+        <v>-0.6716385036073146</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5939833304569863</v>
+        <v>0.6006945638634241</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6373349765071502</v>
+        <v>0.634058921159639</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8053151275096956</v>
+        <v>0.8719513194901852</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5966478173018344</v>
+        <v>-0.5979360146268397</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-5.xlsx
+++ b/pearson_tables/t2m_netherlands-2-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7617312171680582</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7776694484450468</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7192297622155734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7862023621251882</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7325604732579487</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6180860136393579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7827033564264042</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7196272919238915</v>
+        <v>-0.7463000240096004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6588886875659852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7023052219355977</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7793415101443152</v>
+        <v>0.7254957676639393</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6747277345325521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6722021037044005</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6938787916128651</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6679959259682876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8118721569239349</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7314690891945099</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7294549320935984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7197667904727008</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6716385036073146</v>
+        <v>0.6290699851191675</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6006945638634241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.634058921159639</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8719513194901852</v>
+        <v>-0.7633647223836195</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5979360146268397</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
